--- a/documents/schedule_teachers-grouped.xlsx
+++ b/documents/schedule_teachers-grouped.xlsx
@@ -18047,7 +18047,7 @@
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="12" customWidth="1" min="21" max="21"/>
     <col width="11" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="12" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="12" customWidth="1" min="26" max="26"/>
